--- a/mySystem/mySystem/xls/miejun/SOP-MFG-106-R03A 辐照灭菌台帐.xlsx
+++ b/mySystem/mySystem/xls/miejun/SOP-MFG-106-R03A 辐照灭菌台帐.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aaa\mitcpro\mySystem\mySystem\xls\miejun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017年工作\2017-生产指令台账\ERP\灭菌和外包\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,13 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <r>
       <rPr>
@@ -215,36 +217,73 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2017年1月1日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>赵一</t>
-  </si>
-  <si>
-    <t>李四</t>
-  </si>
-  <si>
-    <t>2017年7月25日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>li</t>
-  </si>
-  <si>
-    <t>zh</t>
-  </si>
-  <si>
-    <t>z</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -396,11 +435,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -420,7 +459,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -708,7 +747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -740,18 +779,18 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
@@ -789,322 +828,172 @@
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="8">
-        <v>111</v>
+      <c r="B4" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="13">
-        <v>1</v>
-      </c>
-      <c r="E4" s="13">
-        <v>1</v>
-      </c>
-      <c r="F4" s="13">
-        <v>1</v>
-      </c>
-      <c r="G4" s="13">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="G4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
-        <v>123</v>
-      </c>
+      <c r="B5" s="5"/>
       <c r="C5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2</v>
-      </c>
-      <c r="F5" s="6">
-        <v>2</v>
-      </c>
-      <c r="G5" s="6">
-        <v>2</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
-        <v>22</v>
-      </c>
+      <c r="B6" s="5"/>
       <c r="C6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6">
-        <v>3</v>
-      </c>
-      <c r="E6" s="6">
-        <v>3</v>
-      </c>
-      <c r="F6" s="6">
-        <v>3</v>
-      </c>
-      <c r="G6" s="6">
-        <v>3</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="5">
-        <v>22</v>
-      </c>
+      <c r="B7" s="5"/>
       <c r="C7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="5">
-        <v>123</v>
-      </c>
+      <c r="B8" s="5"/>
       <c r="C8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="5">
-        <v>22</v>
-      </c>
+      <c r="B9" s="5"/>
       <c r="C9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="5">
-        <v>123</v>
-      </c>
+      <c r="B10" s="5"/>
       <c r="C10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
       <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="5">
-        <v>123</v>
-      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="5">
-        <v>123</v>
-      </c>
+      <c r="B12" s="5"/>
       <c r="C12" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="5">
-        <v>111</v>
-      </c>
+      <c r="B13" s="5"/>
       <c r="C13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
@@ -1195,4 +1084,30 @@
   <pageMargins left="0.35433070866141736" right="0.23622047244094491" top="0.84" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/mySystem/mySystem/xls/miejun/SOP-MFG-106-R03A 辐照灭菌台帐.xlsx
+++ b/mySystem/mySystem/xls/miejun/SOP-MFG-106-R03A 辐照灭菌台帐.xlsx
@@ -5,23 +5,24 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017年工作\2017-生产指令台账\ERP\灭菌和外包\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QMS File-20160301\SOP-MFG-1 生产管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="20170808" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="18">
   <si>
     <r>
       <rPr>
@@ -268,15 +269,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>录入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>录入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联</t>
+    <t>产品代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品数量（箱）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gamma射线辐照灭菌台帐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,8 +439,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -747,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -828,24 +829,14 @@
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -1088,14 +1079,315 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.75" style="3" customWidth="1"/>
+    <col min="5" max="6" width="18.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.125" style="3" customWidth="1"/>
+    <col min="8" max="9" width="15.75" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="5">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="5">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.35433070866141736" right="0.23622047244094491" top="0.84" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.15748031496062992"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1110,4 +1402,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>